--- a/(UEL) cube_C3D8T_multiphysics/processing_input/properties.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\Abaqus-UEL-Multiphysics\(UEL) cube_C3D8T_multiphysics\processing_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94573A6-D1A1-4DEC-9FED-BA864D48AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E851DF-FCF8-4CF7-B282-6E0FE92914F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,15 +145,9 @@
     <t>1.0e0</t>
   </si>
   <si>
-    <t>Number of hydrogen atoms that can reside in each BCC lattice site - beta_BCC (dimless)</t>
-  </si>
-  <si>
     <t>6.0e0</t>
   </si>
   <si>
-    <t>Number of hydrogen atoms that can reside in each FCC lattice site - beta_FCC (dimless)</t>
-  </si>
-  <si>
     <t>Lattice parameter for BCC - a_lattice_BCC (m)</t>
   </si>
   <si>
@@ -293,6 +287,12 @@
   </si>
   <si>
     <t>Binding energy of hydrogens (trap type 5) - WB_5 (N*m/mol)</t>
+  </si>
+  <si>
+    <t>Number of hydrogen atoms residing in each BCC lattice site - beta_BCC (dimless)</t>
+  </si>
+  <si>
+    <t>Number of hydrogen atoms residing in each FCC lattice site - beta_FCC (dimless)</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +740,7 @@
     <col min="4" max="4" width="24.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.109375" style="14" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="82.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.5546875" style="14" bestFit="1" customWidth="1"/>
@@ -766,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -786,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
@@ -798,7 +798,7 @@
         <v>7900</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>9</v>
@@ -830,7 +830,7 @@
         <v>400</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>40</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -886,10 +886,10 @@
       <c r="E5" s="9"/>
       <c r="F5" s="12"/>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>30</v>
@@ -906,10 +906,10 @@
       <c r="E6" s="9"/>
       <c r="F6" s="12"/>
       <c r="G6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>34</v>
@@ -926,10 +926,10 @@
       <c r="E7" s="9"/>
       <c r="F7" s="12"/>
       <c r="G7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -942,7 +942,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>40</v>
@@ -974,7 +974,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="12"/>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
@@ -1022,7 +1022,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="12"/>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>9</v>
@@ -1041,7 +1041,7 @@
         <v>36</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1054,10 +1054,10 @@
       <c r="E15" s="9"/>
       <c r="F15" s="12"/>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1070,10 +1070,10 @@
       <c r="E16" s="9"/>
       <c r="F16" s="12"/>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1089,7 +1089,7 @@
         <v>39</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1105,7 +1105,7 @@
         <v>38</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1134,10 +1134,10 @@
       <c r="E20" s="9"/>
       <c r="F20" s="12"/>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1150,10 +1150,10 @@
       <c r="E21" s="9"/>
       <c r="F21" s="12"/>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1166,10 +1166,10 @@
       <c r="E22" s="9"/>
       <c r="F22" s="12"/>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1182,7 +1182,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="12"/>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" s="9">
         <v>2</v>
@@ -1198,10 +1198,10 @@
       <c r="E24" s="9"/>
       <c r="F24" s="12"/>
       <c r="G24" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1214,10 +1214,10 @@
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="9"/>
@@ -1230,7 +1230,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>40</v>
@@ -1246,10 +1246,10 @@
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
       <c r="G27" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="9"/>
@@ -1262,7 +1262,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="12"/>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>40</v>
@@ -1278,10 +1278,10 @@
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
       <c r="G29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="9"/>
@@ -1294,10 +1294,10 @@
       <c r="E30" s="13"/>
       <c r="F30" s="12"/>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="9"/>
@@ -1310,7 +1310,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="12"/>
       <c r="G31" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>19</v>
@@ -1326,7 +1326,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="12"/>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>19</v>
@@ -1342,7 +1342,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
       <c r="G33" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>19</v>
@@ -1358,7 +1358,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="12"/>
       <c r="G34" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>19</v>
@@ -1374,7 +1374,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="12"/>
       <c r="G35" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>19</v>
@@ -1390,7 +1390,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="12"/>
       <c r="G36" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="12"/>
       <c r="G37" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>19</v>
@@ -1422,7 +1422,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="12"/>
       <c r="G38" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>19</v>
@@ -1438,7 +1438,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="12"/>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>19</v>

--- a/(UEL) cube_C3D8T_multiphysics/processing_input/properties.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\Abaqus-UEL-Multiphysics\(UEL) cube_C3D8T_multiphysics\processing_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5AA4E0-2164-4896-ACBE-370A156201C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688631D-DA2B-422D-B63A-A1A1014ED769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,8 +721,8 @@
   </sheetPr>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="8">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>30</v>
